--- a/Iteration 2/Survey/Survey_v2.xlsx
+++ b/Iteration 2/Survey/Survey_v2.xlsx
@@ -444,14 +444,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,6 +465,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -485,15 +491,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1111,31 +1111,31 @@
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="15.75">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="39" t="s">
+      <c r="E49" s="37"/>
+      <c r="F49" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="40"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="44" t="s">
+      <c r="G49" s="44"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J49" s="45"/>
+      <c r="J49" s="49"/>
     </row>
     <row r="50" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A50" s="46"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="31"/>
-      <c r="E50" s="30"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="11" t="s">
         <v>63</v>
       </c>
@@ -1145,33 +1145,33 @@
       <c r="H50" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="42" t="s">
+      <c r="I50" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="43"/>
+      <c r="J50" s="47"/>
     </row>
     <row r="51" spans="1:10" s="2" customFormat="1" ht="18.75">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="38"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -1183,13 +1183,13 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="31"/>
-      <c r="E53" s="30"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -1201,13 +1201,13 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="31"/>
-      <c r="E54" s="30"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -1219,13 +1219,13 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="31"/>
-      <c r="E55" s="30"/>
+      <c r="E55" s="32"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -1237,13 +1237,13 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="31"/>
-      <c r="E56" s="30"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -1255,27 +1255,27 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="30"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="32"/>
       <c r="D58" s="31"/>
-      <c r="E58" s="30"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -1341,13 +1341,13 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="32"/>
       <c r="D62" s="31"/>
-      <c r="E62" s="30"/>
+      <c r="E62" s="32"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -1422,10 +1422,10 @@
       <c r="H68" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I68" s="27" t="s">
+      <c r="I68" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J68" s="27"/>
+      <c r="J68" s="51"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="10"/>
@@ -1438,8 +1438,8 @@
       <c r="F69" s="10"/>
       <c r="G69" s="24"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
     </row>
     <row r="70" spans="1:10">
       <c r="C70" s="10"/>
@@ -1448,8 +1448,8 @@
       </c>
       <c r="E70" s="1"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
     </row>
     <row r="71" spans="1:10">
       <c r="C71" s="10"/>
@@ -1458,8 +1458,8 @@
       </c>
       <c r="E71" s="1"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
@@ -1574,16 +1574,16 @@
       <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
+      <c r="A88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
     </row>
     <row r="89" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -1598,9 +1598,9 @@
       <c r="E90" s="22"/>
     </row>
     <row r="91" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
+      <c r="A91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="6"/>
@@ -1616,15 +1616,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D62:E62"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="A52:C52"/>
@@ -1635,19 +1634,20 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A50:C50"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"&amp;14Navigation survey for voice controlled browsing</oddHeader>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;14Navigation survey for voice controlled browsing - Iteration 2</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
